--- a/BackTest/2020-01-16 BackTest MCO.xlsx
+++ b/BackTest/2020-01-16 BackTest MCO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -734,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -769,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -839,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -874,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -909,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1049,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1084,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1621,6 +1659,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1664,6 +1703,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1707,6 +1747,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1748,6 +1789,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1789,6 +1831,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1830,6 +1873,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1871,6 +1915,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1912,6 +1957,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1953,6 +1999,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1994,6 +2041,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2035,6 +2083,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2076,6 +2125,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2117,6 +2167,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2158,6 +2209,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2199,6 +2251,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2240,6 +2293,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2281,6 +2335,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2322,6 +2377,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2363,6 +2419,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2404,6 +2461,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2445,6 +2503,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2486,6 +2545,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2527,6 +2587,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2568,6 +2629,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2609,6 +2671,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2650,6 +2713,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2691,6 +2755,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2732,6 +2797,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2773,6 +2839,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2814,6 +2881,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2855,6 +2923,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2896,6 +2965,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2937,6 +3007,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2978,6 +3049,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3019,6 +3091,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3060,6 +3133,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3101,6 +3175,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3142,6 +3217,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3183,6 +3259,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3224,6 +3301,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3265,6 +3343,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3306,6 +3385,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3347,6 +3427,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3388,6 +3469,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3429,6 +3511,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3470,6 +3553,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3511,6 +3595,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3554,6 +3639,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3597,6 +3683,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3640,6 +3727,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3683,6 +3771,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3724,6 +3813,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3765,6 +3855,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3806,6 +3897,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3847,6 +3939,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3888,6 +3981,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3929,6 +4023,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3970,6 +4065,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4011,6 +4107,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4052,6 +4149,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4093,6 +4191,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4134,6 +4233,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4175,6 +4275,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4216,6 +4317,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4257,6 +4359,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4298,6 +4401,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4339,6 +4443,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4380,6 +4485,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4421,6 +4527,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4462,6 +4569,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4503,6 +4611,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4546,6 +4655,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4587,6 +4697,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4628,6 +4739,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4669,6 +4781,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4710,6 +4823,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4751,6 +4865,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4792,6 +4907,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4833,6 +4949,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4874,6 +4991,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4915,6 +5033,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4956,6 +5075,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4997,6 +5117,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5038,6 +5159,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5079,6 +5201,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5120,6 +5243,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5161,6 +5285,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5202,6 +5327,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5243,6 +5369,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest MCO.xlsx
+++ b/BackTest/2020-01-16 BackTest MCO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N152"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-535.1633256900001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,21 @@
         <v>-2383.08882569</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5290</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +688,21 @@
         <v>-2379.33382569</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>5280</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +727,21 @@
         <v>-2349.33382569</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>5325</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +766,21 @@
         <v>-2349.33382569</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5350</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +807,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +844,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +881,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +918,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +953,19 @@
         <v>-2090.18862569</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +990,19 @@
         <v>-2114.97342569</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +1027,19 @@
         <v>-2113.84662569</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1064,17 @@
         <v>-2129.76682569</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1099,15 @@
         <v>-2129.76682569</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1132,15 @@
         <v>-2145.57312569</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1165,15 @@
         <v>-2139.07312569</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1200,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1233,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1266,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1299,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1332,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1365,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1398,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1431,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1464,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1497,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1530,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1563,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1594,15 @@
         <v>-2138.27362569</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1627,15 @@
         <v>-2138.27362569</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1660,15 @@
         <v>-2138.27362569</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1693,15 @@
         <v>-2050.25652569</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1726,15 @@
         <v>-2294.35312569</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1759,15 @@
         <v>-2294.35312569</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1792,15 @@
         <v>-2257.26392569</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1825,15 @@
         <v>-2240.26392569</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1860,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1893,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1926,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1959,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1990,15 @@
         <v>-2334.17552569</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2025,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2056,15 @@
         <v>-2521.99632569</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2089,15 @@
         <v>-2630.91502569</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2122,15 @@
         <v>-2799.67402569</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2157,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2190,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2223,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2256,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2289,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2322,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2355,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2388,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2421,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2454,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2487,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2520,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2553,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2586,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2619,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2652,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2685,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2718,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2751,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2784,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2817,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2850,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2883,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2916,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2949,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2982,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +3015,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3048,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3081,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3114,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3147,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3180,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3213,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3246,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3279,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3312,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3345,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3378,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3411,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3444,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3477,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3510,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3543,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3576,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3609,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3642,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3675,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3708,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3741,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3774,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3807,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3840,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3873,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3906,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3939,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3972,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +4005,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4308,1788 +4036,1568 @@
         <v>-2589.613430619999</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5290</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5290</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5290</v>
+      </c>
+      <c r="E110" t="n">
+        <v>5290</v>
+      </c>
+      <c r="F110" t="n">
+        <v>8.9626</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-2598.576030619999</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5290</v>
+      </c>
+      <c r="C111" t="n">
+        <v>5290</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5290</v>
+      </c>
+      <c r="E111" t="n">
+        <v>5290</v>
+      </c>
+      <c r="F111" t="n">
+        <v>8.452500000000001</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-2598.576030619999</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5290</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5290</v>
+      </c>
+      <c r="D112" t="n">
+        <v>5290</v>
+      </c>
+      <c r="E112" t="n">
+        <v>5290</v>
+      </c>
+      <c r="F112" t="n">
+        <v>47.8768</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-2598.576030619999</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C113" t="n">
+        <v>5295</v>
+      </c>
+      <c r="D113" t="n">
+        <v>5295</v>
+      </c>
+      <c r="E113" t="n">
+        <v>5295</v>
+      </c>
+      <c r="F113" t="n">
+        <v>9.2616</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-2589.314430619999</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5295</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5295</v>
+      </c>
+      <c r="E114" t="n">
+        <v>5295</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10.0995</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-2589.314430619999</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C115" t="n">
+        <v>5295</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5295</v>
+      </c>
+      <c r="E115" t="n">
+        <v>5295</v>
+      </c>
+      <c r="F115" t="n">
+        <v>23.3318</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-2589.314430619999</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5295</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5295</v>
+      </c>
+      <c r="E116" t="n">
+        <v>5295</v>
+      </c>
+      <c r="F116" t="n">
+        <v>52.5548</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-2589.314430619999</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C117" t="n">
+        <v>5295</v>
+      </c>
+      <c r="D117" t="n">
+        <v>5295</v>
+      </c>
+      <c r="E117" t="n">
+        <v>5295</v>
+      </c>
+      <c r="F117" t="n">
+        <v>240.6579</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-2589.314430619999</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C118" t="n">
+        <v>5295</v>
+      </c>
+      <c r="D118" t="n">
+        <v>5295</v>
+      </c>
+      <c r="E118" t="n">
+        <v>5295</v>
+      </c>
+      <c r="F118" t="n">
+        <v>10.6887</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-2589.314430619999</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C119" t="n">
+        <v>5295</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5295</v>
+      </c>
+      <c r="E119" t="n">
+        <v>5295</v>
+      </c>
+      <c r="F119" t="n">
+        <v>64</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-2589.314430619999</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C120" t="n">
+        <v>5295</v>
+      </c>
+      <c r="D120" t="n">
+        <v>5315</v>
+      </c>
+      <c r="E120" t="n">
+        <v>5225</v>
+      </c>
+      <c r="F120" t="n">
+        <v>539.2457000000001</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-2589.314430619999</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C121" t="n">
+        <v>5295</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5295</v>
+      </c>
+      <c r="E121" t="n">
+        <v>5295</v>
+      </c>
+      <c r="F121" t="n">
+        <v>40.6056</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-2589.314430619999</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
         <v>5285</v>
       </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+      <c r="C122" t="n">
+        <v>5285</v>
+      </c>
+      <c r="D122" t="n">
+        <v>5285</v>
+      </c>
+      <c r="E122" t="n">
+        <v>5285</v>
+      </c>
+      <c r="F122" t="n">
+        <v>74.9999</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-2664.314330619999</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5270</v>
+      </c>
+      <c r="C123" t="n">
+        <v>5310</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5310</v>
+      </c>
+      <c r="E123" t="n">
+        <v>5270</v>
+      </c>
+      <c r="F123" t="n">
+        <v>90</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-2574.314330619999</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>5275</v>
+      </c>
+      <c r="C124" t="n">
+        <v>5275</v>
+      </c>
+      <c r="D124" t="n">
+        <v>5275</v>
+      </c>
+      <c r="E124" t="n">
+        <v>5275</v>
+      </c>
+      <c r="F124" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-2586.214330619999</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>5270</v>
+      </c>
+      <c r="C125" t="n">
+        <v>5270</v>
+      </c>
+      <c r="D125" t="n">
+        <v>5270</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5270</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2.9772</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-2589.191530619999</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>5270</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5270</v>
+      </c>
+      <c r="D126" t="n">
+        <v>5270</v>
+      </c>
+      <c r="E126" t="n">
+        <v>5270</v>
+      </c>
+      <c r="F126" t="n">
+        <v>80.2495</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-2589.191530619999</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C127" t="n">
+        <v>5295</v>
+      </c>
+      <c r="D127" t="n">
+        <v>5295</v>
+      </c>
+      <c r="E127" t="n">
+        <v>5295</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-2588.191530619999</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5275</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5275</v>
+      </c>
+      <c r="D128" t="n">
+        <v>5275</v>
+      </c>
+      <c r="E128" t="n">
+        <v>5275</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.2565</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-2589.448030619998</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>5245</v>
+      </c>
+      <c r="C129" t="n">
+        <v>5225</v>
+      </c>
+      <c r="D129" t="n">
+        <v>5245</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5225</v>
+      </c>
+      <c r="F129" t="n">
+        <v>56.3802</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-2645.828230619999</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>5285</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5285</v>
+      </c>
+      <c r="D130" t="n">
+        <v>5285</v>
+      </c>
+      <c r="E130" t="n">
+        <v>5285</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-2644.828230619999</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>5265</v>
+      </c>
+      <c r="C131" t="n">
+        <v>5265</v>
+      </c>
+      <c r="D131" t="n">
+        <v>5265</v>
+      </c>
+      <c r="E131" t="n">
+        <v>5265</v>
+      </c>
+      <c r="F131" t="n">
+        <v>9.0426</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-2653.870830619999</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C132" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E132" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-2654.870830619999</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5255</v>
+      </c>
+      <c r="D133" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E133" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F133" t="n">
+        <v>18.2629</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-2673.133730619999</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+      <c r="I133" t="n">
+        <v>5260</v>
+      </c>
+      <c r="J133" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D134" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E134" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F134" t="n">
+        <v>17.3497</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-2690.483430619999</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+      <c r="I134" t="n">
+        <v>5255</v>
+      </c>
+      <c r="J134" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C135" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D135" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E135" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F135" t="n">
+        <v>32.9647</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-2690.483430619999</v>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+      <c r="I135" t="n">
+        <v>5250</v>
+      </c>
+      <c r="J135" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D136" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E136" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F136" t="n">
+        <v>296.6821</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-2690.483430619999</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+      <c r="I136" t="n">
+        <v>5250</v>
+      </c>
+      <c r="J136" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>5290</v>
-      </c>
-      <c r="C110" t="n">
-        <v>5290</v>
-      </c>
-      <c r="D110" t="n">
-        <v>5290</v>
-      </c>
-      <c r="E110" t="n">
-        <v>5290</v>
-      </c>
-      <c r="F110" t="n">
-        <v>8.9626</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-2598.576030619999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>5295</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>5275</v>
+      </c>
+      <c r="C137" t="n">
+        <v>5275</v>
+      </c>
+      <c r="D137" t="n">
+        <v>5275</v>
+      </c>
+      <c r="E137" t="n">
+        <v>5275</v>
+      </c>
+      <c r="F137" t="n">
+        <v>30.692</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-2659.791430619999</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+      <c r="I137" t="n">
+        <v>5250</v>
+      </c>
+      <c r="J137" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>5290</v>
-      </c>
-      <c r="C111" t="n">
-        <v>5290</v>
-      </c>
-      <c r="D111" t="n">
-        <v>5290</v>
-      </c>
-      <c r="E111" t="n">
-        <v>5290</v>
-      </c>
-      <c r="F111" t="n">
-        <v>8.452500000000001</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-2598.576030619999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5285</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5285</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5285</v>
+      </c>
+      <c r="E138" t="n">
+        <v>5285</v>
+      </c>
+      <c r="F138" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-2635.991430619999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+      <c r="I138" t="n">
+        <v>5275</v>
+      </c>
+      <c r="J138" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>5290</v>
-      </c>
-      <c r="C112" t="n">
-        <v>5290</v>
-      </c>
-      <c r="D112" t="n">
-        <v>5290</v>
-      </c>
-      <c r="E112" t="n">
-        <v>5290</v>
-      </c>
-      <c r="F112" t="n">
-        <v>47.8768</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-2598.576030619999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5290</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5290</v>
+      </c>
+      <c r="D139" t="n">
+        <v>5290</v>
+      </c>
+      <c r="E139" t="n">
+        <v>5290</v>
+      </c>
+      <c r="F139" t="n">
+        <v>46.3276</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-2589.663830619999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+      <c r="I139" t="n">
+        <v>5285</v>
+      </c>
+      <c r="J139" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5275</v>
+      </c>
+      <c r="C140" t="n">
         <v>5295</v>
       </c>
-      <c r="C113" t="n">
+      <c r="D140" t="n">
         <v>5295</v>
       </c>
-      <c r="D113" t="n">
-        <v>5295</v>
-      </c>
-      <c r="E113" t="n">
-        <v>5295</v>
-      </c>
-      <c r="F113" t="n">
-        <v>9.2616</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-2589.314430619999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
+      <c r="E140" t="n">
+        <v>5275</v>
+      </c>
+      <c r="F140" t="n">
+        <v>28.5531</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-2561.110730619999</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
         <v>5295</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C141" t="n">
         <v>5295</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D141" t="n">
         <v>5295</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E141" t="n">
         <v>5295</v>
       </c>
-      <c r="F114" t="n">
-        <v>10.0995</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-2589.314430619999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
+      <c r="F141" t="n">
+        <v>33.5369</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-2561.110730619999</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>5295</v>
-      </c>
-      <c r="C115" t="n">
-        <v>5295</v>
-      </c>
-      <c r="D115" t="n">
-        <v>5295</v>
-      </c>
-      <c r="E115" t="n">
-        <v>5295</v>
-      </c>
-      <c r="F115" t="n">
-        <v>23.3318</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-2589.314430619999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5290</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5290</v>
+      </c>
+      <c r="D142" t="n">
+        <v>5290</v>
+      </c>
+      <c r="E142" t="n">
+        <v>5290</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-2561.509730619999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
         <v>5295</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C143" t="n">
+        <v>5335</v>
+      </c>
+      <c r="D143" t="n">
+        <v>5335</v>
+      </c>
+      <c r="E143" t="n">
         <v>5295</v>
       </c>
-      <c r="D116" t="n">
-        <v>5295</v>
-      </c>
-      <c r="E116" t="n">
-        <v>5295</v>
-      </c>
-      <c r="F116" t="n">
-        <v>52.5548</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-2589.314430619999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
+      <c r="F143" t="n">
+        <v>42.7868</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-2518.722930619999</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>5295</v>
-      </c>
-      <c r="C117" t="n">
-        <v>5295</v>
-      </c>
-      <c r="D117" t="n">
-        <v>5295</v>
-      </c>
-      <c r="E117" t="n">
-        <v>5295</v>
-      </c>
-      <c r="F117" t="n">
-        <v>240.6579</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-2589.314430619999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>5295</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5335</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5335</v>
+      </c>
+      <c r="D144" t="n">
+        <v>5365</v>
+      </c>
+      <c r="E144" t="n">
+        <v>5335</v>
+      </c>
+      <c r="F144" t="n">
+        <v>25.0666</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-2518.722930619999</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>5295</v>
-      </c>
-      <c r="C118" t="n">
-        <v>5295</v>
-      </c>
-      <c r="D118" t="n">
-        <v>5295</v>
-      </c>
-      <c r="E118" t="n">
-        <v>5295</v>
-      </c>
-      <c r="F118" t="n">
-        <v>10.6887</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-2589.314430619999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5345</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5335</v>
+      </c>
+      <c r="D145" t="n">
+        <v>5345</v>
+      </c>
+      <c r="E145" t="n">
+        <v>5335</v>
+      </c>
+      <c r="F145" t="n">
+        <v>30.6492</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-2518.722930619999</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>5295</v>
-      </c>
-      <c r="C119" t="n">
-        <v>5295</v>
-      </c>
-      <c r="D119" t="n">
-        <v>5295</v>
-      </c>
-      <c r="E119" t="n">
-        <v>5295</v>
-      </c>
-      <c r="F119" t="n">
-        <v>64</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-2589.314430619999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>5295</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5335</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5325</v>
+      </c>
+      <c r="D146" t="n">
+        <v>5335</v>
+      </c>
+      <c r="E146" t="n">
+        <v>5325</v>
+      </c>
+      <c r="F146" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-2526.022930619999</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>5295</v>
-      </c>
-      <c r="C120" t="n">
-        <v>5295</v>
-      </c>
-      <c r="D120" t="n">
-        <v>5315</v>
-      </c>
-      <c r="E120" t="n">
-        <v>5225</v>
-      </c>
-      <c r="F120" t="n">
-        <v>539.2457000000001</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-2589.314430619999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>5295</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5320</v>
+      </c>
+      <c r="C147" t="n">
+        <v>5320</v>
+      </c>
+      <c r="D147" t="n">
+        <v>5320</v>
+      </c>
+      <c r="E147" t="n">
+        <v>5320</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1.3456</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-2527.368530619999</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>5295</v>
-      </c>
-      <c r="C121" t="n">
-        <v>5295</v>
-      </c>
-      <c r="D121" t="n">
-        <v>5295</v>
-      </c>
-      <c r="E121" t="n">
-        <v>5295</v>
-      </c>
-      <c r="F121" t="n">
-        <v>40.6056</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-2589.314430619999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5320</v>
+      </c>
+      <c r="C148" t="n">
+        <v>5315</v>
+      </c>
+      <c r="D148" t="n">
+        <v>5320</v>
+      </c>
+      <c r="E148" t="n">
+        <v>5315</v>
+      </c>
+      <c r="F148" t="n">
+        <v>77.2743</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-2604.642830619999</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>5285</v>
-      </c>
-      <c r="C122" t="n">
-        <v>5285</v>
-      </c>
-      <c r="D122" t="n">
-        <v>5285</v>
-      </c>
-      <c r="E122" t="n">
-        <v>5285</v>
-      </c>
-      <c r="F122" t="n">
-        <v>74.9999</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-2664.314330619999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5320</v>
+      </c>
+      <c r="C149" t="n">
+        <v>5320</v>
+      </c>
+      <c r="D149" t="n">
+        <v>5320</v>
+      </c>
+      <c r="E149" t="n">
+        <v>5320</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-2594.642830619999</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+      <c r="I149" t="n">
+        <v>5315</v>
+      </c>
+      <c r="J149" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>5270</v>
-      </c>
-      <c r="C123" t="n">
-        <v>5310</v>
-      </c>
-      <c r="D123" t="n">
-        <v>5310</v>
-      </c>
-      <c r="E123" t="n">
-        <v>5270</v>
-      </c>
-      <c r="F123" t="n">
-        <v>90</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-2574.314330619999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5325</v>
+      </c>
+      <c r="C150" t="n">
+        <v>5330</v>
+      </c>
+      <c r="D150" t="n">
+        <v>5330</v>
+      </c>
+      <c r="E150" t="n">
+        <v>5325</v>
+      </c>
+      <c r="F150" t="n">
+        <v>64.1692</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-2530.473630619999</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>5275</v>
-      </c>
-      <c r="C124" t="n">
-        <v>5275</v>
-      </c>
-      <c r="D124" t="n">
-        <v>5275</v>
-      </c>
-      <c r="E124" t="n">
-        <v>5275</v>
-      </c>
-      <c r="F124" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-2586.214330619999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>5310</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5330</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5320</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5330</v>
+      </c>
+      <c r="E151" t="n">
+        <v>5320</v>
+      </c>
+      <c r="F151" t="n">
+        <v>126.392</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-2656.865630619999</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>5270</v>
-      </c>
-      <c r="C125" t="n">
-        <v>5270</v>
-      </c>
-      <c r="D125" t="n">
-        <v>5270</v>
-      </c>
-      <c r="E125" t="n">
-        <v>5270</v>
-      </c>
-      <c r="F125" t="n">
-        <v>2.9772</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-2589.191530619999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>5275</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5360</v>
+      </c>
+      <c r="C152" t="n">
+        <v>5360</v>
+      </c>
+      <c r="D152" t="n">
+        <v>5360</v>
+      </c>
+      <c r="E152" t="n">
+        <v>5360</v>
+      </c>
+      <c r="F152" t="n">
+        <v>357.0995</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-2299.766130619999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>5270</v>
-      </c>
-      <c r="C126" t="n">
-        <v>5270</v>
-      </c>
-      <c r="D126" t="n">
-        <v>5270</v>
-      </c>
-      <c r="E126" t="n">
-        <v>5270</v>
-      </c>
-      <c r="F126" t="n">
-        <v>80.2495</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-2589.191530619999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>5270</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>5295</v>
-      </c>
-      <c r="C127" t="n">
-        <v>5295</v>
-      </c>
-      <c r="D127" t="n">
-        <v>5295</v>
-      </c>
-      <c r="E127" t="n">
-        <v>5295</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-2588.191530619999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>5270</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>5275</v>
-      </c>
-      <c r="C128" t="n">
-        <v>5275</v>
-      </c>
-      <c r="D128" t="n">
-        <v>5275</v>
-      </c>
-      <c r="E128" t="n">
-        <v>5275</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1.2565</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-2589.448030619998</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>5245</v>
-      </c>
-      <c r="C129" t="n">
-        <v>5225</v>
-      </c>
-      <c r="D129" t="n">
-        <v>5245</v>
-      </c>
-      <c r="E129" t="n">
-        <v>5225</v>
-      </c>
-      <c r="F129" t="n">
-        <v>56.3802</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-2645.828230619999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>5285</v>
-      </c>
-      <c r="C130" t="n">
-        <v>5285</v>
-      </c>
-      <c r="D130" t="n">
-        <v>5285</v>
-      </c>
-      <c r="E130" t="n">
-        <v>5285</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-2644.828230619999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>5225</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>5265</v>
-      </c>
-      <c r="C131" t="n">
-        <v>5265</v>
-      </c>
-      <c r="D131" t="n">
-        <v>5265</v>
-      </c>
-      <c r="E131" t="n">
-        <v>5265</v>
-      </c>
-      <c r="F131" t="n">
-        <v>9.0426</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-2653.870830619999</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>5260</v>
-      </c>
-      <c r="C132" t="n">
-        <v>5260</v>
-      </c>
-      <c r="D132" t="n">
-        <v>5260</v>
-      </c>
-      <c r="E132" t="n">
-        <v>5260</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-2654.870830619999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>5265</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>5255</v>
-      </c>
-      <c r="C133" t="n">
-        <v>5255</v>
-      </c>
-      <c r="D133" t="n">
-        <v>5255</v>
-      </c>
-      <c r="E133" t="n">
-        <v>5255</v>
-      </c>
-      <c r="F133" t="n">
-        <v>18.2629</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-2673.133730619999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>5260</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>5250</v>
-      </c>
-      <c r="C134" t="n">
-        <v>5250</v>
-      </c>
-      <c r="D134" t="n">
-        <v>5250</v>
-      </c>
-      <c r="E134" t="n">
-        <v>5250</v>
-      </c>
-      <c r="F134" t="n">
-        <v>17.3497</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-2690.483430619999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>5250</v>
-      </c>
-      <c r="C135" t="n">
-        <v>5250</v>
-      </c>
-      <c r="D135" t="n">
-        <v>5250</v>
-      </c>
-      <c r="E135" t="n">
-        <v>5250</v>
-      </c>
-      <c r="F135" t="n">
-        <v>32.9647</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-2690.483430619999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>5250</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>5260</v>
-      </c>
-      <c r="C136" t="n">
-        <v>5250</v>
-      </c>
-      <c r="D136" t="n">
-        <v>5260</v>
-      </c>
-      <c r="E136" t="n">
-        <v>5250</v>
-      </c>
-      <c r="F136" t="n">
-        <v>296.6821</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-2690.483430619999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>5250</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>5275</v>
-      </c>
-      <c r="C137" t="n">
-        <v>5275</v>
-      </c>
-      <c r="D137" t="n">
-        <v>5275</v>
-      </c>
-      <c r="E137" t="n">
-        <v>5275</v>
-      </c>
-      <c r="F137" t="n">
-        <v>30.692</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-2659.791430619999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>5250</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>5285</v>
-      </c>
-      <c r="C138" t="n">
-        <v>5285</v>
-      </c>
-      <c r="D138" t="n">
-        <v>5285</v>
-      </c>
-      <c r="E138" t="n">
-        <v>5285</v>
-      </c>
-      <c r="F138" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-2635.991430619999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>5275</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>5290</v>
-      </c>
-      <c r="C139" t="n">
-        <v>5290</v>
-      </c>
-      <c r="D139" t="n">
-        <v>5290</v>
-      </c>
-      <c r="E139" t="n">
-        <v>5290</v>
-      </c>
-      <c r="F139" t="n">
-        <v>46.3276</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-2589.663830619999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>5275</v>
-      </c>
-      <c r="C140" t="n">
-        <v>5295</v>
-      </c>
-      <c r="D140" t="n">
-        <v>5295</v>
-      </c>
-      <c r="E140" t="n">
-        <v>5275</v>
-      </c>
-      <c r="F140" t="n">
-        <v>28.5531</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-2561.110730619999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>5290</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>5295</v>
-      </c>
-      <c r="C141" t="n">
-        <v>5295</v>
-      </c>
-      <c r="D141" t="n">
-        <v>5295</v>
-      </c>
-      <c r="E141" t="n">
-        <v>5295</v>
-      </c>
-      <c r="F141" t="n">
-        <v>33.5369</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-2561.110730619999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>5295</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>5290</v>
-      </c>
-      <c r="C142" t="n">
-        <v>5290</v>
-      </c>
-      <c r="D142" t="n">
-        <v>5290</v>
-      </c>
-      <c r="E142" t="n">
-        <v>5290</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.399</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-2561.509730619999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>5295</v>
-      </c>
-      <c r="C143" t="n">
-        <v>5335</v>
-      </c>
-      <c r="D143" t="n">
-        <v>5335</v>
-      </c>
-      <c r="E143" t="n">
-        <v>5295</v>
-      </c>
-      <c r="F143" t="n">
-        <v>42.7868</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-2518.722930619999</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>5335</v>
-      </c>
-      <c r="C144" t="n">
-        <v>5335</v>
-      </c>
-      <c r="D144" t="n">
-        <v>5365</v>
-      </c>
-      <c r="E144" t="n">
-        <v>5335</v>
-      </c>
-      <c r="F144" t="n">
-        <v>25.0666</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-2518.722930619999</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>5345</v>
-      </c>
-      <c r="C145" t="n">
-        <v>5335</v>
-      </c>
-      <c r="D145" t="n">
-        <v>5345</v>
-      </c>
-      <c r="E145" t="n">
-        <v>5335</v>
-      </c>
-      <c r="F145" t="n">
-        <v>30.6492</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-2518.722930619999</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>5335</v>
-      </c>
-      <c r="C146" t="n">
-        <v>5325</v>
-      </c>
-      <c r="D146" t="n">
-        <v>5335</v>
-      </c>
-      <c r="E146" t="n">
-        <v>5325</v>
-      </c>
-      <c r="F146" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-2526.022930619999</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>5320</v>
-      </c>
-      <c r="C147" t="n">
-        <v>5320</v>
-      </c>
-      <c r="D147" t="n">
-        <v>5320</v>
-      </c>
-      <c r="E147" t="n">
-        <v>5320</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1.3456</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-2527.368530619999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>5320</v>
-      </c>
-      <c r="C148" t="n">
-        <v>5315</v>
-      </c>
-      <c r="D148" t="n">
-        <v>5320</v>
-      </c>
-      <c r="E148" t="n">
-        <v>5315</v>
-      </c>
-      <c r="F148" t="n">
-        <v>77.2743</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-2604.642830619999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>5320</v>
-      </c>
-      <c r="C149" t="n">
-        <v>5320</v>
-      </c>
-      <c r="D149" t="n">
-        <v>5320</v>
-      </c>
-      <c r="E149" t="n">
-        <v>5320</v>
-      </c>
-      <c r="F149" t="n">
-        <v>10</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-2594.642830619999</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>5325</v>
-      </c>
-      <c r="C150" t="n">
-        <v>5330</v>
-      </c>
-      <c r="D150" t="n">
-        <v>5330</v>
-      </c>
-      <c r="E150" t="n">
-        <v>5325</v>
-      </c>
-      <c r="F150" t="n">
-        <v>64.1692</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-2530.473630619999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>5330</v>
-      </c>
-      <c r="C151" t="n">
-        <v>5320</v>
-      </c>
-      <c r="D151" t="n">
-        <v>5330</v>
-      </c>
-      <c r="E151" t="n">
-        <v>5320</v>
-      </c>
-      <c r="F151" t="n">
-        <v>126.392</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-2656.865630619999</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>5360</v>
-      </c>
-      <c r="C152" t="n">
-        <v>5360</v>
-      </c>
-      <c r="D152" t="n">
-        <v>5360</v>
-      </c>
-      <c r="E152" t="n">
-        <v>5360</v>
-      </c>
-      <c r="F152" t="n">
-        <v>357.0995</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-2299.766130619999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest MCO.xlsx
+++ b/BackTest/2020-01-16 BackTest MCO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-535.1633256900001</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -649,17 +649,11 @@
         <v>-2383.08882569</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -688,17 +682,11 @@
         <v>-2379.33382569</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -729,15 +717,9 @@
       <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
-        <v>5325</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -768,15 +750,9 @@
       <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="n">
-        <v>5350</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -805,15 +781,11 @@
         <v>-2349.33382569</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -842,15 +814,11 @@
         <v>-2334.33382569</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -879,15 +847,11 @@
         <v>-2334.33382569</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -916,15 +880,11 @@
         <v>-2262.23162569</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -953,15 +913,11 @@
         <v>-2090.18862569</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -990,15 +946,11 @@
         <v>-2114.97342569</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1027,15 +979,11 @@
         <v>-2113.84662569</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1064,16 +1012,14 @@
         <v>-2129.76682569</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
       <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1099,7 +1045,7 @@
         <v>-2129.76682569</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1132,7 +1078,7 @@
         <v>-2145.57312569</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1165,7 +1111,7 @@
         <v>-2139.07312569</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1198,7 +1144,7 @@
         <v>-2139.75852569</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1231,7 +1177,7 @@
         <v>-2169.75852569</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1264,7 +1210,7 @@
         <v>-2160.63662569</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1297,7 +1243,7 @@
         <v>-2201.78882569</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1330,7 +1276,7 @@
         <v>-2192.24702569</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1363,7 +1309,7 @@
         <v>-2185.88932569</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1396,7 +1342,7 @@
         <v>-2191.71092569</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1429,7 +1375,7 @@
         <v>-2191.71092569</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1462,7 +1408,7 @@
         <v>-2191.71092569</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1495,7 +1441,7 @@
         <v>-2191.71092569</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1528,7 +1474,7 @@
         <v>-2183.27362569</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1594,7 +1540,7 @@
         <v>-2138.27362569</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1627,7 +1573,7 @@
         <v>-2138.27362569</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1660,7 +1606,7 @@
         <v>-2138.27362569</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1693,7 +1639,7 @@
         <v>-2050.25652569</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1726,7 +1672,7 @@
         <v>-2294.35312569</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1759,7 +1705,7 @@
         <v>-2294.35312569</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1792,7 +1738,7 @@
         <v>-2257.26392569</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1825,7 +1771,7 @@
         <v>-2240.26392569</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1858,7 +1804,7 @@
         <v>-2240.26392569</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1891,7 +1837,7 @@
         <v>-1517.87352569</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1924,7 +1870,7 @@
         <v>-1828.48362569</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1957,7 +1903,7 @@
         <v>-2302.71462569</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1990,7 +1936,7 @@
         <v>-2334.17552569</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2023,7 +1969,7 @@
         <v>-2334.17552569</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2056,7 +2002,7 @@
         <v>-2521.99632569</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2089,7 +2035,7 @@
         <v>-2630.91502569</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2122,7 +2068,7 @@
         <v>-2799.67402569</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2155,7 +2101,7 @@
         <v>-2980.91502569</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2254,7 +2200,7 @@
         <v>-3669.82362569</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -4003,11 +3949,17 @@
         <v>-2728.164930619999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>5215</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4036,11 +3988,17 @@
         <v>-2589.613430619999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>5285</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4069,11 +4027,17 @@
         <v>-2598.576030619999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>5295</v>
+      </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4106,7 +4070,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4139,7 +4107,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4172,7 +4144,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4205,7 +4181,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4238,7 +4218,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4271,7 +4255,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4304,7 +4292,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4337,7 +4329,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4370,7 +4366,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4403,7 +4403,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4436,7 +4440,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4469,7 +4477,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4502,7 +4514,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4535,7 +4551,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4568,7 +4588,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4597,11 +4621,17 @@
         <v>-2589.191530619999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>5270</v>
+      </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4630,11 +4660,17 @@
         <v>-2588.191530619999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>5270</v>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4667,7 +4703,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4700,7 +4740,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4733,7 +4777,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4766,7 +4814,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4799,7 +4851,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4828,15 +4884,15 @@
         <v>-2673.133730619999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>5260</v>
-      </c>
-      <c r="J133" t="n">
-        <v>5260</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4865,17 +4921,15 @@
         <v>-2690.483430619999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>5255</v>
       </c>
-      <c r="J134" t="n">
-        <v>5260</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L134" t="n">
@@ -4906,17 +4960,15 @@
         <v>-2690.483430619999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>5250</v>
       </c>
-      <c r="J135" t="n">
-        <v>5260</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -4947,17 +4999,15 @@
         <v>-2690.483430619999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>5250</v>
       </c>
-      <c r="J136" t="n">
-        <v>5260</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -4988,14 +5038,12 @@
         <v>-2659.791430619999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>5250</v>
       </c>
-      <c r="J137" t="n">
-        <v>5260</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5029,14 +5077,12 @@
         <v>-2635.991430619999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>5275</v>
       </c>
-      <c r="J138" t="n">
-        <v>5260</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5070,14 +5116,12 @@
         <v>-2589.663830619999</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>5285</v>
       </c>
-      <c r="J139" t="n">
-        <v>5260</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5113,10 +5157,10 @@
       <c r="H140" t="n">
         <v>1</v>
       </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>5260</v>
-      </c>
+      <c r="I140" t="n">
+        <v>5290</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5152,10 +5196,10 @@
       <c r="H141" t="n">
         <v>1</v>
       </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>5260</v>
-      </c>
+      <c r="I141" t="n">
+        <v>5295</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5191,10 +5235,10 @@
       <c r="H142" t="n">
         <v>1</v>
       </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>5260</v>
-      </c>
+      <c r="I142" t="n">
+        <v>5295</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5230,10 +5274,10 @@
       <c r="H143" t="n">
         <v>1</v>
       </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>5260</v>
-      </c>
+      <c r="I143" t="n">
+        <v>5290</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5269,10 +5313,10 @@
       <c r="H144" t="n">
         <v>1</v>
       </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>5260</v>
-      </c>
+      <c r="I144" t="n">
+        <v>5335</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5309,9 +5353,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>5260</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5345,12 +5387,10 @@
         <v>-2526.022930619999</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>5260</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5387,9 +5427,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>5260</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5423,12 +5461,10 @@
         <v>-2604.642830619999</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>5260</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5462,14 +5498,12 @@
         <v>-2594.642830619999</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>5315</v>
       </c>
-      <c r="J149" t="n">
-        <v>5260</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5505,10 +5539,10 @@
       <c r="H150" t="n">
         <v>1</v>
       </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>5260</v>
-      </c>
+      <c r="I150" t="n">
+        <v>5320</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5544,10 +5578,10 @@
       <c r="H151" t="n">
         <v>1</v>
       </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>5260</v>
-      </c>
+      <c r="I151" t="n">
+        <v>5330</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5583,10 +5617,10 @@
       <c r="H152" t="n">
         <v>1</v>
       </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>5260</v>
-      </c>
+      <c r="I152" t="n">
+        <v>5320</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5598,6 +5632,6 @@
       <c r="M152" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest MCO.xlsx
+++ b/BackTest/2020-01-16 BackTest MCO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>-1967.71932569</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1967.71932569</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2349.33382569</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-2334.33382569</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-2262.23162569</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2090.18862569</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2114.97342569</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2113.84662569</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2129.76682569</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-2129.76682569</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-2145.57312569</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2201.78882569</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2192.24702569</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-2185.88932569</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2183.27362569</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2138.27362569</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1828.48362569</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-2302.71462569</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-2334.17552569</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2334.17552569</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-2521.99632569</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-2630.91502569</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2799.67402569</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2980.91502569</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3669.82362569</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-2642.013330619999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3949,576 +3949,512 @@
         <v>-2728.164930619999</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>5215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5265</v>
+      </c>
+      <c r="C109" t="n">
+        <v>5295</v>
+      </c>
+      <c r="D109" t="n">
+        <v>5295</v>
+      </c>
+      <c r="E109" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F109" t="n">
+        <v>138.5515</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-2589.613430619999</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5290</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5290</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5290</v>
+      </c>
+      <c r="E110" t="n">
+        <v>5290</v>
+      </c>
+      <c r="F110" t="n">
+        <v>8.9626</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-2598.576030619999</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5290</v>
+      </c>
+      <c r="C111" t="n">
+        <v>5290</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5290</v>
+      </c>
+      <c r="E111" t="n">
+        <v>5290</v>
+      </c>
+      <c r="F111" t="n">
+        <v>8.452500000000001</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-2598.576030619999</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5290</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5290</v>
+      </c>
+      <c r="D112" t="n">
+        <v>5290</v>
+      </c>
+      <c r="E112" t="n">
+        <v>5290</v>
+      </c>
+      <c r="F112" t="n">
+        <v>47.8768</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-2598.576030619999</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C113" t="n">
+        <v>5295</v>
+      </c>
+      <c r="D113" t="n">
+        <v>5295</v>
+      </c>
+      <c r="E113" t="n">
+        <v>5295</v>
+      </c>
+      <c r="F113" t="n">
+        <v>9.2616</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-2589.314430619999</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5295</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5295</v>
+      </c>
+      <c r="E114" t="n">
+        <v>5295</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10.0995</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-2589.314430619999</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C115" t="n">
+        <v>5295</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5295</v>
+      </c>
+      <c r="E115" t="n">
+        <v>5295</v>
+      </c>
+      <c r="F115" t="n">
+        <v>23.3318</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-2589.314430619999</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5295</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5295</v>
+      </c>
+      <c r="E116" t="n">
+        <v>5295</v>
+      </c>
+      <c r="F116" t="n">
+        <v>52.5548</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-2589.314430619999</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C117" t="n">
+        <v>5295</v>
+      </c>
+      <c r="D117" t="n">
+        <v>5295</v>
+      </c>
+      <c r="E117" t="n">
+        <v>5295</v>
+      </c>
+      <c r="F117" t="n">
+        <v>240.6579</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-2589.314430619999</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C118" t="n">
+        <v>5295</v>
+      </c>
+      <c r="D118" t="n">
+        <v>5295</v>
+      </c>
+      <c r="E118" t="n">
+        <v>5295</v>
+      </c>
+      <c r="F118" t="n">
+        <v>10.6887</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-2589.314430619999</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C119" t="n">
+        <v>5295</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5295</v>
+      </c>
+      <c r="E119" t="n">
+        <v>5295</v>
+      </c>
+      <c r="F119" t="n">
+        <v>64</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-2589.314430619999</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C120" t="n">
+        <v>5295</v>
+      </c>
+      <c r="D120" t="n">
+        <v>5315</v>
+      </c>
+      <c r="E120" t="n">
+        <v>5225</v>
+      </c>
+      <c r="F120" t="n">
+        <v>539.2457000000001</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-2589.314430619999</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C121" t="n">
+        <v>5295</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5295</v>
+      </c>
+      <c r="E121" t="n">
+        <v>5295</v>
+      </c>
+      <c r="F121" t="n">
+        <v>40.6056</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-2589.314430619999</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>5285</v>
+      </c>
+      <c r="C122" t="n">
+        <v>5285</v>
+      </c>
+      <c r="D122" t="n">
+        <v>5285</v>
+      </c>
+      <c r="E122" t="n">
+        <v>5285</v>
+      </c>
+      <c r="F122" t="n">
+        <v>74.9999</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-2664.314330619999</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5270</v>
+      </c>
+      <c r="C123" t="n">
+        <v>5310</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5310</v>
+      </c>
+      <c r="E123" t="n">
+        <v>5270</v>
+      </c>
+      <c r="F123" t="n">
+        <v>90</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-2574.314330619999</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>5285</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>5265</v>
-      </c>
-      <c r="C109" t="n">
-        <v>5295</v>
-      </c>
-      <c r="D109" t="n">
-        <v>5295</v>
-      </c>
-      <c r="E109" t="n">
-        <v>5260</v>
-      </c>
-      <c r="F109" t="n">
-        <v>138.5515</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-2589.613430619999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>5285</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>5290</v>
-      </c>
-      <c r="C110" t="n">
-        <v>5290</v>
-      </c>
-      <c r="D110" t="n">
-        <v>5290</v>
-      </c>
-      <c r="E110" t="n">
-        <v>5290</v>
-      </c>
-      <c r="F110" t="n">
-        <v>8.9626</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-2598.576030619999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>5295</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>5290</v>
-      </c>
-      <c r="C111" t="n">
-        <v>5290</v>
-      </c>
-      <c r="D111" t="n">
-        <v>5290</v>
-      </c>
-      <c r="E111" t="n">
-        <v>5290</v>
-      </c>
-      <c r="F111" t="n">
-        <v>8.452500000000001</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-2598.576030619999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>5290</v>
-      </c>
-      <c r="C112" t="n">
-        <v>5290</v>
-      </c>
-      <c r="D112" t="n">
-        <v>5290</v>
-      </c>
-      <c r="E112" t="n">
-        <v>5290</v>
-      </c>
-      <c r="F112" t="n">
-        <v>47.8768</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-2598.576030619999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>5295</v>
-      </c>
-      <c r="C113" t="n">
-        <v>5295</v>
-      </c>
-      <c r="D113" t="n">
-        <v>5295</v>
-      </c>
-      <c r="E113" t="n">
-        <v>5295</v>
-      </c>
-      <c r="F113" t="n">
-        <v>9.2616</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-2589.314430619999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>5295</v>
-      </c>
-      <c r="C114" t="n">
-        <v>5295</v>
-      </c>
-      <c r="D114" t="n">
-        <v>5295</v>
-      </c>
-      <c r="E114" t="n">
-        <v>5295</v>
-      </c>
-      <c r="F114" t="n">
-        <v>10.0995</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-2589.314430619999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>5295</v>
-      </c>
-      <c r="C115" t="n">
-        <v>5295</v>
-      </c>
-      <c r="D115" t="n">
-        <v>5295</v>
-      </c>
-      <c r="E115" t="n">
-        <v>5295</v>
-      </c>
-      <c r="F115" t="n">
-        <v>23.3318</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-2589.314430619999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>5295</v>
-      </c>
-      <c r="C116" t="n">
-        <v>5295</v>
-      </c>
-      <c r="D116" t="n">
-        <v>5295</v>
-      </c>
-      <c r="E116" t="n">
-        <v>5295</v>
-      </c>
-      <c r="F116" t="n">
-        <v>52.5548</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-2589.314430619999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>5295</v>
-      </c>
-      <c r="C117" t="n">
-        <v>5295</v>
-      </c>
-      <c r="D117" t="n">
-        <v>5295</v>
-      </c>
-      <c r="E117" t="n">
-        <v>5295</v>
-      </c>
-      <c r="F117" t="n">
-        <v>240.6579</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-2589.314430619999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>5295</v>
-      </c>
-      <c r="C118" t="n">
-        <v>5295</v>
-      </c>
-      <c r="D118" t="n">
-        <v>5295</v>
-      </c>
-      <c r="E118" t="n">
-        <v>5295</v>
-      </c>
-      <c r="F118" t="n">
-        <v>10.6887</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-2589.314430619999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>5295</v>
-      </c>
-      <c r="C119" t="n">
-        <v>5295</v>
-      </c>
-      <c r="D119" t="n">
-        <v>5295</v>
-      </c>
-      <c r="E119" t="n">
-        <v>5295</v>
-      </c>
-      <c r="F119" t="n">
-        <v>64</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-2589.314430619999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>5295</v>
-      </c>
-      <c r="C120" t="n">
-        <v>5295</v>
-      </c>
-      <c r="D120" t="n">
-        <v>5315</v>
-      </c>
-      <c r="E120" t="n">
-        <v>5225</v>
-      </c>
-      <c r="F120" t="n">
-        <v>539.2457000000001</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-2589.314430619999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>5295</v>
-      </c>
-      <c r="C121" t="n">
-        <v>5295</v>
-      </c>
-      <c r="D121" t="n">
-        <v>5295</v>
-      </c>
-      <c r="E121" t="n">
-        <v>5295</v>
-      </c>
-      <c r="F121" t="n">
-        <v>40.6056</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-2589.314430619999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>5285</v>
-      </c>
-      <c r="C122" t="n">
-        <v>5285</v>
-      </c>
-      <c r="D122" t="n">
-        <v>5285</v>
-      </c>
-      <c r="E122" t="n">
-        <v>5285</v>
-      </c>
-      <c r="F122" t="n">
-        <v>74.9999</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-2664.314330619999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>5270</v>
-      </c>
-      <c r="C123" t="n">
-        <v>5310</v>
-      </c>
-      <c r="D123" t="n">
-        <v>5310</v>
-      </c>
-      <c r="E123" t="n">
-        <v>5270</v>
-      </c>
-      <c r="F123" t="n">
-        <v>90</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-2574.314330619999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4547,9 +4483,11 @@
         <v>-2586.214330619999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>5310</v>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -4621,11 +4559,9 @@
         <v>-2589.191530619999</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>5270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -4810,9 +4746,11 @@
         <v>-2653.870830619999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>5285</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5155,11 +5093,9 @@
         <v>-2561.110730619999</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>5290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5194,11 +5130,9 @@
         <v>-2561.110730619999</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>5295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5233,11 +5167,9 @@
         <v>-2561.509730619999</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>5295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5272,11 +5204,9 @@
         <v>-2518.722930619999</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>5290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5311,11 +5241,9 @@
         <v>-2518.722930619999</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>5335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5498,11 +5426,9 @@
         <v>-2594.642830619999</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>5315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -5537,11 +5463,9 @@
         <v>-2530.473630619999</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>5320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -5576,11 +5500,9 @@
         <v>-2656.865630619999</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>5330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -5615,11 +5537,9 @@
         <v>-2299.766130619999</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>5320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -5632,6 +5552,6 @@
       <c r="M152" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest MCO.xlsx
+++ b/BackTest/2020-01-16 BackTest MCO.xlsx
@@ -517,7 +517,7 @@
         <v>-1967.71932569</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1967.71932569</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2349.33382569</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-2349.33382569</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-2334.33382569</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-2139.07312569</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2139.75852569</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2169.75852569</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-2160.63662569</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-2191.71092569</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-2191.71092569</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2191.71092569</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2191.71092569</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2183.27362569</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2183.27362569</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-2138.27362569</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2138.27362569</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-2138.27362569</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-2050.25652569</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2294.35312569</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-2294.35312569</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2257.26392569</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2240.26392569</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2240.26392569</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1517.87352569</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1828.48362569</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-2302.71462569</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-2334.17552569</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2398,10 +2398,14 @@
         <v>-3539.67232569</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5290</v>
+      </c>
+      <c r="J61" t="n">
+        <v>5290</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
@@ -2434,8 +2438,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>5290</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2477,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>5290</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -3883,7 +3899,7 @@
         <v>-2642.013330619999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3949,11 +3965,17 @@
         <v>-2728.164930619999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>5215</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4004,17 @@
         <v>-2589.613430619999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>5285</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4043,17 @@
         <v>-2598.576030619999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>5295</v>
+      </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4082,17 @@
         <v>-2598.576030619999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>5290</v>
+      </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4125,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4158,17 @@
         <v>-2589.314430619999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>5290</v>
+      </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4197,15 @@
         <v>-2589.314430619999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4234,17 @@
         <v>-2589.314430619999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>5295</v>
+      </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4273,17 @@
         <v>-2589.314430619999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>5295</v>
+      </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4312,17 @@
         <v>-2589.314430619999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>5295</v>
+      </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4351,17 @@
         <v>-2589.314430619999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>5295</v>
+      </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4390,17 @@
         <v>-2589.314430619999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>5295</v>
+      </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4429,17 @@
         <v>-2589.314430619999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>5295</v>
+      </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4472,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4509,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4452,7 +4550,7 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -4522,9 +4620,11 @@
         <v>-2589.191530619999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>5275</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -4559,9 +4659,11 @@
         <v>-2589.191530619999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>5270</v>
+      </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -4635,9 +4737,11 @@
         <v>-2589.448030619998</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>5295</v>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -4672,9 +4776,11 @@
         <v>-2645.828230619999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>5275</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -4709,9 +4815,11 @@
         <v>-2644.828230619999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>5225</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -4785,9 +4893,11 @@
         <v>-2654.870830619999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>5265</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -4822,9 +4932,11 @@
         <v>-2673.133730619999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>5260</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5093,9 +5205,11 @@
         <v>-2561.110730619999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>5290</v>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5130,9 +5244,11 @@
         <v>-2561.110730619999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>5295</v>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5167,9 +5283,11 @@
         <v>-2561.509730619999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>5295</v>
+      </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5204,9 +5322,11 @@
         <v>-2518.722930619999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>5290</v>
+      </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5241,9 +5361,11 @@
         <v>-2518.722930619999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>5335</v>
+      </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5278,9 +5400,11 @@
         <v>-2518.722930619999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>5335</v>
+      </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5315,9 +5439,11 @@
         <v>-2526.022930619999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>5335</v>
+      </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -5352,9 +5478,11 @@
         <v>-2527.368530619999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>5325</v>
+      </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5389,9 +5517,11 @@
         <v>-2604.642830619999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>5320</v>
+      </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -5426,9 +5556,11 @@
         <v>-2594.642830619999</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>5315</v>
+      </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -5463,9 +5595,11 @@
         <v>-2530.473630619999</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>5320</v>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -5500,9 +5634,11 @@
         <v>-2656.865630619999</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>5330</v>
+      </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -5537,9 +5673,11 @@
         <v>-2299.766130619999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>5320</v>
+      </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
